--- a/biology/Histoire de la zoologie et de la botanique/Alice_Pruvot-Fol/Alice_Pruvot-Fol.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alice_Pruvot-Fol/Alice_Pruvot-Fol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Pruvot-Fol, née Fol, est une malacologiste française, née en 1873 et morte en 1972.
 Cette spécialiste des mollusques opisthobranches est l’auteur de nombreuses nouvelles espèces, la plupart décrites sur des spécimens préservés. Elle a même décrit une nouvelle espèce (Nembrotha rutilans, Pruvot-Fol, 1931) sur la base d’une illustration tirée du livre de William Saville-Kent (1845-1908), The Great Barrier Reef of Australia.
@@ -514,7 +526,9 @@
           <t>Quelques genres et espèces décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aldisa banyulensis Pruvot-Fol, 1951
@@ -538,7 +552,7 @@
 Trapania Pruvot-Fol, 1931
 Thecacera darwini Pruvot-Fol, 1950
 Thordisa filix Pruvot-Fol, 1951
-Verconia Pruvot-Fol, 1931[1]
+Verconia Pruvot-Fol, 1931
 </t>
         </is>
       </c>
@@ -567,7 +581,9 @@
           <t>Espèces et genres qui lui ont été dédiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hallaxa apefae Er. Marcus, 1957 (le nom de l’espèce est dérivé de ses initiales APF)
 Pruvotfolia J. Tardy, 1970</t>
@@ -598,7 +614,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1922. Sur un type nouveau et remarquable de gymnosomes (Laginiopsis n.g.). -- Compt. Rend. hebdom. Séanc. Acad. Sci, 174: 696-698.
 1924. Étude de quelques gymnosomes méditerranéens des pêches de 'l'Orvet' en 1921 et 1922. -- Arch. Zool. Exp. Gén., 62(6): 345-400, 32 figs, pls 15-16.
